--- a/bin/xlsx/type/ItemUseType.xlsx
+++ b/bin/xlsx/type/ItemUseType.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +56,14 @@
       <t>gong'ju</t>
     </rPh>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -490,7 +498,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -545,9 +553,15 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
